--- a/RR2023.xlsx
+++ b/RR2023.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glenny\Documents\GitHub\riskstreamlitgmf2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC9288E-6E50-404F-9598-C927E8CE12CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B4ADC2F9-DE02-471C-9A83-AFEA467939B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RR2023" sheetId="1" r:id="rId1"/>
@@ -6921,7 +6921,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7760,10 +7760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -10757,7 +10759,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -10858,7 +10860,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2023</v>
       </c>
@@ -10959,7 +10961,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2023</v>
       </c>
@@ -11060,7 +11062,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" ht="288" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -11565,7 +11567,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2023</v>
       </c>
@@ -11666,7 +11668,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2023</v>
       </c>
@@ -11773,7 +11775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2023</v>
       </c>
@@ -11874,7 +11876,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2023</v>
       </c>
@@ -11981,7 +11983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2023</v>
       </c>
@@ -12088,7 +12090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2023</v>
       </c>
@@ -12195,7 +12197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2023</v>
       </c>
@@ -12302,7 +12304,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2023</v>
       </c>
@@ -12409,7 +12411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2023</v>
       </c>
@@ -12516,7 +12518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2023</v>
       </c>
@@ -12625,7 +12627,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -12732,7 +12734,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" ht="216" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2023</v>
       </c>
@@ -12836,7 +12838,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2023</v>
       </c>
@@ -12943,7 +12945,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2023</v>
       </c>
@@ -13050,7 +13052,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" ht="288" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2023</v>
       </c>
@@ -13157,7 +13159,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2023</v>
       </c>
@@ -13258,7 +13260,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2023</v>
       </c>
@@ -13365,7 +13367,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" ht="288" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2023</v>
       </c>
@@ -13581,7 +13583,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2023</v>
       </c>
@@ -13797,7 +13799,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2023</v>
       </c>
@@ -14008,7 +14010,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2023</v>
       </c>
@@ -14109,7 +14111,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2023</v>
       </c>
@@ -14216,7 +14218,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2023</v>
       </c>
@@ -14317,7 +14319,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2023</v>
       </c>
@@ -14424,7 +14426,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" ht="216" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2023</v>
       </c>
@@ -14643,7 +14645,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2023</v>
       </c>
@@ -14744,7 +14746,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2023</v>
       </c>
@@ -14845,7 +14847,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2023</v>
       </c>
@@ -14946,7 +14948,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2023</v>
       </c>
@@ -15044,7 +15046,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2023</v>
       </c>
@@ -15142,7 +15144,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2023</v>
       </c>
@@ -15237,7 +15239,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" ht="72" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2023</v>
       </c>
@@ -15332,7 +15334,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2023</v>
       </c>
@@ -15427,7 +15429,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2023</v>
       </c>
@@ -15525,7 +15527,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2023</v>
       </c>
@@ -15620,7 +15622,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2023</v>
       </c>
@@ -15715,7 +15717,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" ht="216" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2023</v>
       </c>
@@ -15912,7 +15914,7 @@
         <v>2023-04-17</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2023</v>
       </c>
@@ -16015,7 +16017,7 @@
         <v>2023-04-17</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2023</v>
       </c>
@@ -16117,7 +16119,7 @@
         <v>2023-04-17</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2023</v>
       </c>
@@ -16220,7 +16222,7 @@
         <v>2023-04-17</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" ht="216" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2023</v>
       </c>
@@ -16321,7 +16323,7 @@
         <v>2023-04-17</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2023</v>
       </c>
@@ -16422,7 +16424,7 @@
         <v>2023-04-17</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" ht="216" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2023</v>
       </c>
@@ -16523,7 +16525,7 @@
         <v>2023-04-17</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2023</v>
       </c>
@@ -16630,7 +16632,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2023</v>
       </c>
@@ -16838,7 +16840,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2023</v>
       </c>
@@ -16939,7 +16941,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2023</v>
       </c>
@@ -17040,7 +17042,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2023</v>
       </c>
@@ -17126,7 +17128,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2023</v>
       </c>
@@ -17212,7 +17214,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2023</v>
       </c>
@@ -17298,7 +17300,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2023</v>
       </c>
@@ -17684,7 +17686,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2023</v>
       </c>
@@ -17791,7 +17793,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2023</v>
       </c>
@@ -17898,7 +17900,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2023</v>
       </c>
@@ -18005,7 +18007,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2023</v>
       </c>
@@ -18112,7 +18114,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:39" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2023</v>
       </c>
@@ -18329,7 +18331,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2023</v>
       </c>
@@ -18445,7 +18447,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39" ht="144" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2023</v>
       </c>
@@ -18661,7 +18663,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:39" ht="144" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2023</v>
       </c>
@@ -18769,7 +18771,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:39" ht="216" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2023</v>
       </c>
@@ -18876,7 +18878,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2023</v>
       </c>
@@ -18985,7 +18987,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2023</v>
       </c>
@@ -19315,7 +19317,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:39" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2023</v>
       </c>
@@ -19630,7 +19632,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2023</v>
       </c>
@@ -19737,7 +19739,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:39" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2023</v>
       </c>
@@ -19844,7 +19846,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:39" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2023</v>
       </c>
@@ -19951,7 +19953,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:39" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2023</v>
       </c>
@@ -20058,7 +20060,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:39" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2023</v>
       </c>
@@ -20165,7 +20167,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:39" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2023</v>
       </c>
@@ -20272,7 +20274,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:39" ht="144" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2023</v>
       </c>
@@ -20379,7 +20381,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:39" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2023</v>
       </c>
@@ -20486,7 +20488,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:39" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2023</v>
       </c>
@@ -20593,7 +20595,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:39" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2023</v>
       </c>
@@ -20700,7 +20702,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:39" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2023</v>
       </c>
@@ -20807,7 +20809,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:39" ht="144" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2023</v>
       </c>
@@ -20914,7 +20916,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:39" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2023</v>
       </c>
@@ -21021,7 +21023,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:39" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2023</v>
       </c>
@@ -21125,7 +21127,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:39" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2023</v>
       </c>
@@ -21229,7 +21231,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:39" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2023</v>
       </c>
@@ -21333,7 +21335,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:39" ht="360" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2023</v>
       </c>
@@ -21437,7 +21439,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:39" ht="288" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2023</v>
       </c>
@@ -21541,7 +21543,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:39" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2023</v>
       </c>
@@ -21645,7 +21647,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:39" ht="216" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2023</v>
       </c>
@@ -21749,7 +21751,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:39" ht="288" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2023</v>
       </c>
@@ -21853,7 +21855,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:39" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2023</v>
       </c>
@@ -21957,7 +21959,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:39" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2023</v>
       </c>
@@ -22061,7 +22063,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:39" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2023</v>
       </c>
@@ -22167,7 +22169,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:39" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2023</v>
       </c>
@@ -22271,7 +22273,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:39" ht="288" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2023</v>
       </c>
@@ -22375,7 +22377,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:39" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2023</v>
       </c>
@@ -22479,7 +22481,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:39" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2023</v>
       </c>
@@ -22583,7 +22585,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:39" ht="288" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2023</v>
       </c>
@@ -22687,7 +22689,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:39" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2023</v>
       </c>
@@ -22791,7 +22793,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:39" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2023</v>
       </c>
@@ -22895,7 +22897,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:39" ht="216" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2023</v>
       </c>
@@ -22999,7 +23001,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:39" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2023</v>
       </c>
@@ -23100,7 +23102,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:39" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2023</v>
       </c>
@@ -23198,7 +23200,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2023</v>
       </c>
@@ -23510,7 +23512,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2023</v>
       </c>
@@ -23606,7 +23608,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:39" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2023</v>
       </c>
@@ -23713,7 +23715,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:39" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2023</v>
       </c>
@@ -23888,7 +23890,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:39" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2023</v>
       </c>
@@ -24292,7 +24294,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:37" ht="288" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2023</v>
       </c>
@@ -24597,7 +24599,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2023</v>
       </c>
@@ -24695,7 +24697,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2023</v>
       </c>
@@ -24799,7 +24801,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2023</v>
       </c>
@@ -24903,7 +24905,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:37" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2023</v>
       </c>
@@ -25007,7 +25009,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2023</v>
       </c>
@@ -25215,7 +25217,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2023</v>
       </c>
@@ -25417,7 +25419,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2023</v>
       </c>
@@ -25717,7 +25719,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2023</v>
       </c>
@@ -25821,7 +25823,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2023</v>
       </c>
@@ -25924,7 +25926,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2023</v>
       </c>
@@ -26010,7 +26012,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="178" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2023</v>
       </c>
@@ -26115,7 +26117,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:37" ht="216" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2023</v>
       </c>
@@ -26327,7 +26329,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2023</v>
       </c>
@@ -26850,7 +26852,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="186" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2023</v>
       </c>
@@ -27058,7 +27060,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="188" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:37" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2023</v>
       </c>
@@ -27682,7 +27684,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:37" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2023</v>
       </c>
@@ -27786,7 +27788,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2023</v>
       </c>
@@ -28202,7 +28204,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:37" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2023</v>
       </c>
@@ -28514,7 +28516,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:37" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2023</v>
       </c>
@@ -28618,7 +28620,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:37" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2023</v>
       </c>
@@ -29660,7 +29662,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:38" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2023</v>
       </c>
@@ -29769,7 +29771,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:38" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2023</v>
       </c>
@@ -29876,7 +29878,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:38" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2023</v>
       </c>
@@ -29975,7 +29977,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:38" ht="216" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2023</v>
       </c>
@@ -30071,7 +30073,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:38" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2023</v>
       </c>
@@ -30186,7 +30188,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:38" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2023</v>
       </c>
@@ -30291,7 +30293,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:38" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2023</v>
       </c>
@@ -30398,7 +30400,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:38" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2023</v>
       </c>
@@ -30495,7 +30497,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:38" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2023</v>
       </c>
@@ -30605,7 +30607,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:38" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2023</v>
       </c>
@@ -30700,7 +30702,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:38" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2023</v>
       </c>
@@ -30801,7 +30803,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:38" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2023</v>
       </c>
@@ -30902,7 +30904,7 @@
         <v>2023-03-29</v>
       </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:38" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2023</v>
       </c>
@@ -32557,7 +32559,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="241" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2023</v>
       </c>
@@ -32667,7 +32669,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="242" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2023</v>
       </c>
@@ -32777,7 +32779,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="243" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:39" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2023</v>
       </c>
@@ -32887,7 +32889,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="244" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2023</v>
       </c>
@@ -32994,7 +32996,7 @@
         <v>2023-01-09</v>
       </c>
     </row>
-    <row r="245" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2023</v>
       </c>
@@ -33104,7 +33106,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="246" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2023</v>
       </c>
@@ -33214,7 +33216,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="247" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:39" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2023</v>
       </c>
@@ -33324,7 +33326,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="248" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:39" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2023</v>
       </c>
@@ -33434,7 +33436,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="249" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:39" ht="288" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2023</v>
       </c>
@@ -33544,7 +33546,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="250" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2023</v>
       </c>
@@ -33654,7 +33656,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="251" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:39" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2023</v>
       </c>
@@ -33764,7 +33766,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:39" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2023</v>
       </c>
@@ -33874,7 +33876,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:39" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2023</v>
       </c>
@@ -33981,7 +33983,7 @@
         <v>2023-01-09</v>
       </c>
     </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:39" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2023</v>
       </c>
@@ -34091,7 +34093,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:39" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2023</v>
       </c>
@@ -34189,7 +34191,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="256" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:39" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2023</v>
       </c>
@@ -34296,7 +34298,7 @@
         <v>2023-01-09</v>
       </c>
     </row>
-    <row r="257" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:39" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2023</v>
       </c>
@@ -34403,7 +34405,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="258" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:39" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2023</v>
       </c>
@@ -34600,7 +34602,7 @@
         <v>2023-04-17</v>
       </c>
     </row>
-    <row r="260" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:39" ht="216" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2023</v>
       </c>
@@ -34697,7 +34699,7 @@
         <v>2023-04-17</v>
       </c>
     </row>
-    <row r="261" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:39" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2023</v>
       </c>
@@ -34794,7 +34796,7 @@
         <v>2023-04-17</v>
       </c>
     </row>
-    <row r="262" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:39" ht="216" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2023</v>
       </c>
